--- a/AI指導員_測試腳本_v2拷貝.xlsx
+++ b/AI指導員_測試腳本_v2拷貝.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://artsolutionsio-my.sharepoint.com/personal/hico_yen_artsolutions_io/Documents/專案/化/測試腳本/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoneychuang/Desktop/安然-聯成化科_V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="630" documentId="8_{F44ABDCE-3BCC-42C9-8A12-907B31AD7836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C49AE8-B15D-914C-8134-D647601D81AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5D83F-7F3A-E54F-A9DB-9ABA030E549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BB27898B-3568-4E57-BA67-CE4CD3FFB40A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{BB27898B-3568-4E57-BA67-CE4CD3FFB40A}"/>
   </bookViews>
   <sheets>
     <sheet name="文件內容測試假設_0917" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1269,9 +1268,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1309,7 +1308,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1415,7 +1414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1557,7 +1556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1579,8 +1578,8 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1816,7 +1815,7 @@
     </row>
     <row r="12" spans="1:6" ht="409.6">
       <c r="A12" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -1836,7 +1835,7 @@
     </row>
     <row r="13" spans="1:6" ht="409.6">
       <c r="A13" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -1856,7 +1855,7 @@
     </row>
     <row r="14" spans="1:6" ht="409.6">
       <c r="A14" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1876,7 +1875,7 @@
     </row>
     <row r="15" spans="1:6" ht="409.6">
       <c r="A15" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>24</v>
@@ -1896,7 +1895,7 @@
     </row>
     <row r="16" spans="1:6" ht="228">
       <c r="A16" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>24</v>
@@ -1916,7 +1915,7 @@
     </row>
     <row r="17" spans="1:6" ht="409.6">
       <c r="A17" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -1936,7 +1935,7 @@
     </row>
     <row r="18" spans="1:6" ht="409.6">
       <c r="A18" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>24</v>
@@ -1956,7 +1955,7 @@
     </row>
     <row r="19" spans="1:6" ht="409" customHeight="1">
       <c r="A19" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>24</v>
@@ -1976,7 +1975,7 @@
     </row>
     <row r="20" spans="1:6" ht="409.6">
       <c r="A20" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>24</v>
@@ -1996,7 +1995,7 @@
     </row>
     <row r="21" spans="1:6" ht="190">
       <c r="A21" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>24</v>
@@ -2016,7 +2015,7 @@
     </row>
     <row r="22" spans="1:6" ht="380">
       <c r="A22" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>43</v>
@@ -2036,7 +2035,7 @@
     </row>
     <row r="23" spans="1:6" ht="409.6">
       <c r="A23" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>43</v>
@@ -2056,7 +2055,7 @@
     </row>
     <row r="24" spans="1:6" ht="398">
       <c r="A24" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>43</v>
@@ -2076,7 +2075,7 @@
     </row>
     <row r="25" spans="1:6" ht="304">
       <c r="A25" s="3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>43</v>
@@ -2096,7 +2095,7 @@
     </row>
     <row r="26" spans="1:6" ht="409.6">
       <c r="A26" s="3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>43</v>
@@ -2116,7 +2115,7 @@
     </row>
     <row r="27" spans="1:6" ht="361">
       <c r="A27" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>43</v>
@@ -2136,7 +2135,7 @@
     </row>
     <row r="28" spans="1:6" ht="361">
       <c r="A28" s="3">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>43</v>
@@ -2156,7 +2155,7 @@
     </row>
     <row r="29" spans="1:6" ht="323">
       <c r="A29" s="3">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>43</v>
@@ -2176,7 +2175,7 @@
     </row>
     <row r="30" spans="1:6" ht="285">
       <c r="A30" s="3">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>43</v>
@@ -2196,7 +2195,7 @@
     </row>
     <row r="31" spans="1:6" ht="209">
       <c r="A31" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -2228,6 +2227,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="69923842-15c5-4e8e-9542-00a16ca64682" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="69b591c9-6868-42ae-aa3d-b31b425bcebb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100171BE37E11E7904DB820FAA969809503" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fc4df5bafb03c462d507f7b780518d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69b591c9-6868-42ae-aa3d-b31b425bcebb" xmlns:ns3="69923842-15c5-4e8e-9542-00a16ca64682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2e9331a9d4a6bef91f23b42d551f73a" ns2:_="" ns3:_="">
     <xsd:import namespace="69b591c9-6868-42ae-aa3d-b31b425bcebb"/>
@@ -2468,27 +2487,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DC0F1D8-FF1B-456C-8932-1296F32D6FCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="69923842-15c5-4e8e-9542-00a16ca64682"/>
+    <ds:schemaRef ds:uri="69b591c9-6868-42ae-aa3d-b31b425bcebb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="69923842-15c5-4e8e-9542-00a16ca64682" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="69b591c9-6868-42ae-aa3d-b31b425bcebb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40891B9A-58F3-4C99-9122-086CDF48FD66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A12522-5183-4F9D-83C8-7D50F8E98848}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2507,31 +2531,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40891B9A-58F3-4C99-9122-086CDF48FD66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DC0F1D8-FF1B-456C-8932-1296F32D6FCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="69923842-15c5-4e8e-9542-00a16ca64682"/>
-    <ds:schemaRef ds:uri="69b591c9-6868-42ae-aa3d-b31b425bcebb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
